--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B89E7-C41E-4B90-AC6A-0D392D346658}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFE7FA8-FD7D-4DB9-A082-8A641A17B90B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Питання" sheetId="1" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" r:id="rId1"/>
     <sheet name="Рисунок 1" sheetId="2" r:id="rId2"/>
     <sheet name="Рисунок 2" sheetId="3" r:id="rId3"/>
     <sheet name="Рисунок 3" sheetId="4" r:id="rId4"/>
@@ -545,7 +545,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="3111607" cy="4838702"/>
+          <a:ext cx="3133725" cy="4857750"/>
           <a:chOff x="152400" y="152400"/>
           <a:chExt cx="3111607" cy="4838702"/>
         </a:xfrm>
@@ -1103,9 +1103,7 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
